--- a/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{599E814F-8B6A-4B69-967F-88DA1507316D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC84A28-5206-4D16-9785-7E7352C1C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{020CEFE6-4B1C-4E85-9854-418B986A33E9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10EDB301-BACC-4188-89D5-36BBF03E1719}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,6 +77,66 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -132,66 +192,6 @@
   </si>
   <si>
     <t>6,71%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
   </si>
   <si>
     <t>95,64%</t>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E068B3D-DF25-472C-A3CF-976B241E6A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82211848-3422-4B26-9330-3A916B401383}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -892,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>220081</v>
+        <v>35463</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -907,10 +907,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>158461</v>
+        <v>31456</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -922,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>464</v>
+        <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>378540</v>
+        <v>66919</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -946,7 +946,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>5724</v>
+        <v>5913</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -958,10 +958,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="7">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>10084</v>
+        <v>2545</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -973,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>15809</v>
+        <v>8458</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -994,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="D9" s="7">
-        <v>225805</v>
+        <v>41376</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1009,10 +1009,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="I9" s="7">
-        <v>168545</v>
+        <v>34001</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -1024,10 +1024,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>483</v>
+        <v>94</v>
       </c>
       <c r="N9" s="7">
-        <v>394349</v>
+        <v>75377</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -1047,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="D10" s="7">
-        <v>35463</v>
+        <v>220081</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1062,10 +1062,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="I10" s="7">
-        <v>31456</v>
+        <v>158461</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -1077,10 +1077,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>84</v>
+        <v>464</v>
       </c>
       <c r="N10" s="7">
-        <v>66919</v>
+        <v>378540</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1101,7 +1101,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="7">
-        <v>5913</v>
+        <v>5724</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
@@ -1113,10 +1113,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>2545</v>
+        <v>10084</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
@@ -1128,10 +1128,10 @@
         <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>8458</v>
+        <v>15809</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
@@ -1149,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>41376</v>
+        <v>225805</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -1164,10 +1164,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>34001</v>
+        <v>168545</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -1179,10 +1179,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>94</v>
+        <v>483</v>
       </c>
       <c r="N12" s="7">
-        <v>75377</v>
+        <v>394349</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>

--- a/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC84A28-5206-4D16-9785-7E7352C1C4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A5B603-883E-45B4-8C8E-B2F7260091F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10EDB301-BACC-4188-89D5-36BBF03E1719}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00457EDA-698B-47B9-A13C-88F8B15EAA01}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -65,187 +65,193 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,39 +358,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -547,13 +553,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -562,6 +561,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -626,19 +632,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82211848-3422-4B26-9330-3A916B401383}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFB293E-2928-46F7-868C-C472A27FA46A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -892,49 +918,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>42</v>
-      </c>
-      <c r="D7" s="7">
-        <v>35463</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7">
-        <v>31456</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>84</v>
-      </c>
-      <c r="N7" s="7">
-        <v>66919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -943,49 +963,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
-      </c>
-      <c r="N8" s="7">
-        <v>8458</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -994,102 +1008,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>49</v>
-      </c>
-      <c r="D9" s="7">
-        <v>41376</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
-      </c>
-      <c r="I9" s="7">
-        <v>34001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>94</v>
-      </c>
-      <c r="N9" s="7">
-        <v>75377</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>251</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>220081</v>
+        <v>8431</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>158461</v>
+        <v>3370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>378540</v>
+        <v>11801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,49 +1106,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="D11" s="7">
-        <v>5724</v>
+        <v>90917</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>10084</v>
+        <v>68295</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="N11" s="7">
-        <v>15809</v>
+        <v>159213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,102 +1157,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="D12" s="7">
-        <v>225805</v>
+        <v>99348</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>225</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>168545</v>
+        <v>71665</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>483</v>
+        <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>394349</v>
+        <v>171014</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>293</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>255543</v>
+        <v>3206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>189916</v>
+        <v>9260</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
-        <v>548</v>
+        <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>445459</v>
+        <v>12466</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,49 +1261,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D14" s="7">
-        <v>11637</v>
+        <v>164626</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="I14" s="7">
-        <v>12630</v>
+        <v>121620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>29</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>24267</v>
+        <v>286246</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,55 +1312,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>188</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167832</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>175</v>
+      </c>
+      <c r="I15" s="7">
+        <v>130880</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>363</v>
+      </c>
+      <c r="N15" s="7">
+        <v>298712</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>11637</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>15</v>
+      </c>
+      <c r="I16" s="7">
+        <v>12630</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>29</v>
+      </c>
+      <c r="N16" s="7">
+        <v>24267</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>293</v>
+      </c>
+      <c r="D17" s="7">
+        <v>255543</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>255</v>
+      </c>
+      <c r="I17" s="7">
+        <v>189916</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>548</v>
+      </c>
+      <c r="N17" s="7">
+        <v>445459</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>307</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>267180</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>270</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>202546</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>577</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>469726</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4A5B603-883E-45B4-8C8E-B2F7260091F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1D76CF-CA4C-4049-9500-4B0967CEE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00457EDA-698B-47B9-A13C-88F8B15EAA01}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8F0486C-ABA2-43FD-AD3B-B0925C63CF7F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
@@ -86,55 +86,55 @@
     <t>8,49%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
   </si>
   <si>
     <t>6,9%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>93,1%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,109 +146,103 @@
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>92,92%</t>
   </si>
   <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>97,65%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>94,83%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -663,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFB293E-2928-46F7-868C-C472A27FA46A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6EE4BA-4C19-4D46-A558-A6C072F8F3C7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1377,7 +1371,7 @@
         <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -1386,13 +1380,13 @@
         <v>12630</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -1401,13 +1395,13 @@
         <v>24267</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1416,13 @@
         <v>255543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>255</v>
@@ -1437,13 +1431,13 @@
         <v>189916</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>548</v>
@@ -1452,13 +1446,13 @@
         <v>445459</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,7 +1508,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/KIDM_C_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1D76CF-CA4C-4049-9500-4B0967CEE8FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C024EC75-DEE2-473F-9FA5-626F78337E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8F0486C-ABA2-43FD-AD3B-B0925C63CF7F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D155983-94B6-4A69-9C1B-CEBD93418355}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Menores según si tienen muchos o muchísimos problemas para dormir (autopercepción menor) en 2023 (Tasa respuesta: 30,05%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -83,58 +83,58 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,106 +143,112 @@
     <t>12-15</t>
   </si>
   <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
     <t>1,91%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>98,09%</t>
   </si>
   <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -657,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6EE4BA-4C19-4D46-A558-A6C072F8F3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DD1D8B-FF04-4FB9-BA36-05B8BF942B69}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1049,10 +1055,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>8431</v>
+        <v>3063</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>15</v>
@@ -1064,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>3370</v>
+        <v>8422</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>18</v>
@@ -1082,7 +1088,7 @@
         <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>11801</v>
+        <v>11485</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>21</v>
@@ -1100,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>90917</v>
+        <v>64862</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>24</v>
@@ -1115,10 +1121,10 @@
         <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="I11" s="7">
-        <v>68295</v>
+        <v>90943</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>27</v>
@@ -1133,7 +1139,7 @@
         <v>200</v>
       </c>
       <c r="N11" s="7">
-        <v>159213</v>
+        <v>155805</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>30</v>
@@ -1151,25 +1157,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="7">
         <v>119</v>
       </c>
-      <c r="D12" s="7">
-        <v>99348</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="7">
-        <v>95</v>
-      </c>
       <c r="I12" s="7">
-        <v>71665</v>
+        <v>99365</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>33</v>
@@ -1184,7 +1190,7 @@
         <v>214</v>
       </c>
       <c r="N12" s="7">
-        <v>171014</v>
+        <v>167290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>33</v>
@@ -1204,10 +1210,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>3206</v>
+        <v>7984</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>35</v>
@@ -1219,10 +1225,10 @@
         <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>9260</v>
+        <v>3154</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>38</v>
@@ -1237,7 +1243,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="7">
-        <v>12466</v>
+        <v>11137</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>41</v>
@@ -1255,10 +1261,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7">
-        <v>164626</v>
+        <v>134563</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>44</v>
@@ -1270,10 +1276,10 @@
         <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="I14" s="7">
-        <v>121620</v>
+        <v>169629</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>47</v>
@@ -1288,7 +1294,7 @@
         <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>286246</v>
+        <v>304192</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>50</v>
@@ -1306,25 +1312,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>175</v>
+      </c>
+      <c r="D15" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
         <v>188</v>
       </c>
-      <c r="D15" s="7">
-        <v>167832</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7">
-        <v>175</v>
-      </c>
       <c r="I15" s="7">
-        <v>130880</v>
+        <v>172783</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>33</v>
@@ -1339,7 +1345,7 @@
         <v>363</v>
       </c>
       <c r="N15" s="7">
-        <v>298712</v>
+        <v>315329</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>33</v>
@@ -1359,10 +1365,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>11637</v>
+        <v>11046</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>53</v>
@@ -1371,37 +1377,37 @@
         <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>12630</v>
+        <v>11576</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>24267</v>
+        <v>22622</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,49 +1416,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>255</v>
+      </c>
+      <c r="D17" s="7">
+        <v>199426</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
         <v>293</v>
       </c>
-      <c r="D17" s="7">
-        <v>255543</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="7">
-        <v>255</v>
-      </c>
       <c r="I17" s="7">
-        <v>189916</v>
+        <v>260571</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>548</v>
       </c>
       <c r="N17" s="7">
-        <v>445459</v>
+        <v>459997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,25 +1467,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>270</v>
+      </c>
+      <c r="D18" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>307</v>
       </c>
-      <c r="D18" s="7">
-        <v>267180</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>270</v>
-      </c>
       <c r="I18" s="7">
-        <v>202546</v>
+        <v>272147</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>33</v>
@@ -1494,7 +1500,7 @@
         <v>577</v>
       </c>
       <c r="N18" s="7">
-        <v>469726</v>
+        <v>482619</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>33</v>
@@ -1508,7 +1514,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
